--- a/src/sendcloud/send_email_with_sendcloud/email_list.xlsx
+++ b/src/sendcloud/send_email_with_sendcloud/email_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pathbox/code/learning-go/src/sendcloud/send_email_with_sendcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9703BF-DF22-7D48-8804-5D8E437E96C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,14 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>guijihe@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>info@growthbox.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -93,6 +93,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,11 +363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -374,10 +377,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" display="mailto:info@growthbox.net" xr:uid="{AC426316-C1B1-4E40-9E2F-041C6DA5D0F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
